--- a/biology/Botanique/Ampelopsis/Ampelopsis.xlsx
+++ b/biology/Botanique/Ampelopsis/Ampelopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ampelopsis est un genre de plantes grimpantes ligneuses de la famille des Vitaceae. Les petites fleurs de ce genre ont 5 pétales libres (et non soudés au sommet comme les vignes du genre Vitis) et leurs vrilles ont 2 ou 3 branches (et non 4-12 branches comme les vignes-vierges du genre Parthenocissus). Le genre Ampelopsis regroupe environ 25 espèces de plantes originaires de Chine et d’Amérique du Nord.
 Le nom Ampelopsis vient du grec ἄμπελος, ampelos, « vigne ».
@@ -512,25 +524,27 @@
           <t>Liste de quelques espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ampelopsis aconitifolia Bunge (Monkshood Vine pour les anglophones)[1]
-Ampelopsis arborea (L.) Koehne (Peppervine pour les anglophones)[2]
-Ampelopsis bodinieri (H.Lev &amp; Vaniot) Rehder [3]
-Ampelopsis brevipedunculata (Maxim.) Trautv.- vigne vierge à fruits bleus (Porcelain Berry pour les anglophones)synonyme de A. glandulosa var. brevipedunculata'(NPGS/GRIN) [4]
-Ampelopsis cantoniensis (Hook. &amp; Arn.) K.Koch [5]
-Ampelopsis chaffanjonii (H.Lev &amp; Vaniot) Rehder [6]
-Ampelopsis cordata Michx. (False Grape, Raccoon-grape, Heart-leaf Peppervine ou Heart-leaf Ampelopsis pour les anglophones) [7]
-Ampelopsis delavayana Planch. [8]
-Ampelopsis denudata Planch. [9]
-Ampelopsis glandulosa (Wall.) Momiy. [10]
-Ampelopsis humulifolia Bunge[11]
-Ampelopsis japonica (Thunb.) Makino - Japanese Peppervine[12]
-Ampelopsis leeoides (Maxim.) Planch. [13]
-Ampelopsis megalophylla Diels &amp; Gilg (Spikenard Ampelopsis pour les anglophones) [14]
-Ampelopsis orientalis (Lam.) Planch. [15]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ampelopsis aconitifolia Bunge (Monkshood Vine pour les anglophones)
+Ampelopsis arborea (L.) Koehne (Peppervine pour les anglophones)
+Ampelopsis bodinieri (H.Lev &amp; Vaniot) Rehder 
+Ampelopsis brevipedunculata (Maxim.) Trautv.- vigne vierge à fruits bleus (Porcelain Berry pour les anglophones)synonyme de A. glandulosa var. brevipedunculata'(NPGS/GRIN) 
+Ampelopsis cantoniensis (Hook. &amp; Arn.) K.Koch 
+Ampelopsis chaffanjonii (H.Lev &amp; Vaniot) Rehder 
+Ampelopsis cordata Michx. (False Grape, Raccoon-grape, Heart-leaf Peppervine ou Heart-leaf Ampelopsis pour les anglophones) 
+Ampelopsis delavayana Planch. 
+Ampelopsis denudata Planch. 
+Ampelopsis glandulosa (Wall.) Momiy. 
+Ampelopsis humulifolia Bunge
+Ampelopsis japonica (Thunb.) Makino - Japanese Peppervine
+Ampelopsis leeoides (Maxim.) Planch. 
+Ampelopsis megalophylla Diels &amp; Gilg (Spikenard Ampelopsis pour les anglophones) 
+Ampelopsis orientalis (Lam.) Planch. 
 Ampelopsis quinquefolia
-Ampelopsis vitifolia Planch. [16]</t>
+Ampelopsis vitifolia Planch. </t>
         </is>
       </c>
     </row>
@@ -558,7 +572,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces d’Ampelopsis sont des plantes hôtes des chenilles de plusieurs espèces de lépidoptères, dont Bucculatrix quinquenotella et Euchloron megaera.
 </t>
